--- a/idis/expdata/90011.xlsx
+++ b/idis/expdata/90011.xlsx
@@ -813,7 +813,7 @@
         <v>66</v>
       </c>
       <c r="L2">
-        <v>2.187352589964236e-05</v>
+        <v>2.187352588386017e-05</v>
       </c>
       <c r="M2">
         <v>-2.309929833273095e-06</v>
@@ -1010,7 +1010,7 @@
         <v>66</v>
       </c>
       <c r="L3">
-        <v>2.171627946110828e-05</v>
+        <v>2.171627945628786e-05</v>
       </c>
       <c r="M3">
         <v>-2.297003811579573e-06</v>
@@ -1207,7 +1207,7 @@
         <v>66</v>
       </c>
       <c r="L4">
-        <v>5.074248134023029e-05</v>
+        <v>5.074248131568596e-05</v>
       </c>
       <c r="M4">
         <v>-5.503321837862251e-06</v>
@@ -1404,7 +1404,7 @@
         <v>66</v>
       </c>
       <c r="L5">
-        <v>2.157210071592957e-05</v>
+        <v>2.157210071439315e-05</v>
       </c>
       <c r="M5">
         <v>-2.283707782188904e-06</v>
@@ -1601,7 +1601,7 @@
         <v>66</v>
       </c>
       <c r="L6">
-        <v>5.093031042778075e-05</v>
+        <v>5.093031042050723e-05</v>
       </c>
       <c r="M6">
         <v>-5.48770601816074e-06</v>
@@ -1798,7 +1798,7 @@
         <v>66</v>
       </c>
       <c r="L7">
-        <v>2.133627952106676e-05</v>
+        <v>2.133627952056863e-05</v>
       </c>
       <c r="M7">
         <v>-2.269564870361161e-06</v>
@@ -1995,7 +1995,7 @@
         <v>66</v>
       </c>
       <c r="L8">
-        <v>5.093707987068237e-05</v>
+        <v>5.093707986836048e-05</v>
       </c>
       <c r="M8">
         <v>-5.478105463300869e-06</v>
@@ -2192,7 +2192,7 @@
         <v>66</v>
       </c>
       <c r="L9">
-        <v>0.0001231491411445762</v>
+        <v>0.0001231491411312949</v>
       </c>
       <c r="M9">
         <v>-1.346710658593185e-05</v>
@@ -2389,7 +2389,7 @@
         <v>66</v>
       </c>
       <c r="L10">
-        <v>2.103281443606841e-05</v>
+        <v>2.103281443590486e-05</v>
       </c>
       <c r="M10">
         <v>-2.25521423367291e-06</v>
@@ -2586,7 +2586,7 @@
         <v>66</v>
       </c>
       <c r="L11">
-        <v>5.072006580768103e-05</v>
+        <v>5.07200658069098e-05</v>
       </c>
       <c r="M11">
         <v>-5.469486060916651e-06</v>
@@ -2783,7 +2783,7 @@
         <v>66</v>
       </c>
       <c r="L12">
-        <v>0.0001235950831576007</v>
+        <v>0.0001235950831534122</v>
       </c>
       <c r="M12">
         <v>-1.346349998819741e-05</v>
@@ -2980,7 +2980,7 @@
         <v>66</v>
       </c>
       <c r="L13">
-        <v>0.0003057533503368427</v>
+        <v>0.0003057533503089107</v>
       </c>
       <c r="M13">
         <v>-3.398217148859734e-05</v>
@@ -3177,7 +3177,7 @@
         <v>66</v>
       </c>
       <c r="L14">
-        <v>2.080116606138175e-05</v>
+        <v>2.080116606132674e-05</v>
       </c>
       <c r="M14">
         <v>-2.242026114493286e-06</v>
@@ -3374,7 +3374,7 @@
         <v>66</v>
       </c>
       <c r="L15">
-        <v>5.030044373161815e-05</v>
+        <v>5.030044373135673e-05</v>
       </c>
       <c r="M15">
         <v>-5.461515357202197e-06</v>
@@ -3571,7 +3571,7 @@
         <v>66</v>
       </c>
       <c r="L16">
-        <v>0.0001231859055990928</v>
+        <v>0.0001231859055976953</v>
       </c>
       <c r="M16">
         <v>-1.346836867147005e-05</v>
@@ -3768,7 +3768,7 @@
         <v>66</v>
       </c>
       <c r="L17">
-        <v>0.0003069365844829154</v>
+        <v>0.0003069365844743376</v>
       </c>
       <c r="M17">
         <v>-3.391761509961548e-05</v>
@@ -3965,7 +3965,7 @@
         <v>66</v>
       </c>
       <c r="L18">
-        <v>2.040143184805933e-05</v>
+        <v>2.040143184804104e-05</v>
       </c>
       <c r="M18">
         <v>-1.487356708092613e-06</v>
@@ -4162,7 +4162,7 @@
         <v>66</v>
       </c>
       <c r="L19">
-        <v>4.976483944227303e-05</v>
+        <v>4.97648394421836e-05</v>
       </c>
       <c r="M19">
         <v>-5.454165422826967e-06</v>
@@ -4359,7 +4359,7 @@
         <v>66</v>
       </c>
       <c r="L20">
-        <v>0.0001221878901829389</v>
+        <v>0.0001221878901824595</v>
       </c>
       <c r="M20">
         <v>-1.347449426115334e-05</v>
@@ -4556,7 +4556,7 @@
         <v>66</v>
       </c>
       <c r="L21">
-        <v>0.0003057580651790062</v>
+        <v>0.0003057580651761667</v>
       </c>
       <c r="M21">
         <v>-3.380759539078214e-05</v>
@@ -4753,7 +4753,7 @@
         <v>66</v>
       </c>
       <c r="L22">
-        <v>0.0007633248409600876</v>
+        <v>0.000763324840940644</v>
       </c>
       <c r="M22">
         <v>-8.550068700756952e-05</v>
@@ -4950,7 +4950,7 @@
         <v>66</v>
       </c>
       <c r="L23">
-        <v>2.0048828256849e-05</v>
+        <v>2.004882825684299e-05</v>
       </c>
       <c r="M23">
         <v>-1.478904456463456e-06</v>
@@ -5147,7 +5147,7 @@
         <v>66</v>
       </c>
       <c r="L24">
-        <v>4.914512141111816e-05</v>
+        <v>4.914512141108791e-05</v>
       </c>
       <c r="M24">
         <v>-5.437872862648892e-06</v>
@@ -5344,7 +5344,7 @@
         <v>66</v>
       </c>
       <c r="L25">
-        <v>0.0001208836765688465</v>
+        <v>0.0001208836765686813</v>
       </c>
       <c r="M25">
         <v>-1.345479770100999e-05</v>
@@ -5541,7 +5541,7 @@
         <v>66</v>
       </c>
       <c r="L26">
-        <v>0.0003029287424362681</v>
+        <v>0.0003029287424352947</v>
       </c>
       <c r="M26">
         <v>-3.361583511048654e-05</v>
@@ -5738,7 +5738,7 @@
         <v>66</v>
       </c>
       <c r="L27">
-        <v>0.0007597640240205937</v>
+        <v>0.0007597640240143011</v>
       </c>
       <c r="M27">
         <v>-8.485116987341581e-05</v>
@@ -5935,7 +5935,7 @@
         <v>66</v>
       </c>
       <c r="L28">
-        <v>1.961255928589264e-05</v>
+        <v>1.961255928589078e-05</v>
       </c>
       <c r="M28">
         <v>-1.456453367709757e-06</v>
@@ -6132,7 +6132,7 @@
         <v>66</v>
       </c>
       <c r="L29">
-        <v>4.833232927585363e-05</v>
+        <v>4.833232927584378e-05</v>
       </c>
       <c r="M29">
         <v>-3.579753783988316e-06</v>
@@ -6329,7 +6329,7 @@
         <v>66</v>
       </c>
       <c r="L30">
-        <v>0.0001191615765499697</v>
+        <v>0.000119161576549914</v>
       </c>
       <c r="M30">
         <v>-1.330270836221997e-05</v>
@@ -6526,7 +6526,7 @@
         <v>66</v>
       </c>
       <c r="L31">
-        <v>0.000298400320386968</v>
+        <v>0.0002984003203866339</v>
       </c>
       <c r="M31">
         <v>-3.312225333004725e-05</v>
@@ -6723,7 +6723,7 @@
         <v>66</v>
       </c>
       <c r="L32">
-        <v>0.0007492582136648539</v>
+        <v>0.0007492582136627357</v>
       </c>
       <c r="M32">
         <v>-8.336403349026071e-05</v>
@@ -6920,7 +6920,7 @@
         <v>66</v>
       </c>
       <c r="L33">
-        <v>0.001884964979501396</v>
+        <v>0.001884964979486359</v>
       </c>
       <c r="M33">
         <v>-0.0002108382258917175</v>
@@ -7117,7 +7117,7 @@
         <v>66</v>
       </c>
       <c r="L34">
-        <v>1.897426054880446e-05</v>
+        <v>1.897426054880392e-05</v>
       </c>
       <c r="M34">
         <v>-1.396891895455764e-06</v>
@@ -7314,7 +7314,7 @@
         <v>66</v>
       </c>
       <c r="L35">
-        <v>4.689078297812372e-05</v>
+        <v>4.689078297812064e-05</v>
       </c>
       <c r="M35">
         <v>-3.443916034614782e-06</v>
@@ -7511,7 +7511,7 @@
         <v>66</v>
       </c>
       <c r="L36">
-        <v>0.000115879203916085</v>
+        <v>0.0001158792039160668</v>
       </c>
       <c r="M36">
         <v>-8.54237994434755e-06</v>
@@ -7708,7 +7708,7 @@
         <v>66</v>
       </c>
       <c r="L37">
-        <v>0.0002896094240538605</v>
+        <v>0.0002896094240537485</v>
       </c>
       <c r="M37">
         <v>-3.185963679973663e-05</v>
@@ -7905,7 +7905,7 @@
         <v>66</v>
       </c>
       <c r="L38">
-        <v>0.0007262154603695303</v>
+        <v>0.0007262154603688179</v>
       </c>
       <c r="M38">
         <v>-7.993708910394562e-05</v>
@@ -8102,7 +8102,7 @@
         <v>66</v>
       </c>
       <c r="L39">
-        <v>0.001826657413964306</v>
+        <v>0.001826657413959459</v>
       </c>
       <c r="M39">
         <v>-0.0002014306495971829</v>
@@ -8299,7 +8299,7 @@
         <v>66</v>
       </c>
       <c r="L40">
-        <v>0.004696354356647255</v>
+        <v>0.004696354356608311</v>
       </c>
       <c r="M40">
         <v>-0.0005141321361146658</v>
@@ -8496,7 +8496,7 @@
         <v>66</v>
       </c>
       <c r="L41">
-        <v>4.430562005336418e-05</v>
+        <v>4.430562005336323e-05</v>
       </c>
       <c r="M41">
         <v>-3.200240293557439e-06</v>
@@ -8693,7 +8693,7 @@
         <v>66</v>
       </c>
       <c r="L42">
-        <v>0.0001098132198447398</v>
+        <v>0.0001098132198447339</v>
       </c>
       <c r="M42">
         <v>-7.954331885887152e-06</v>
@@ -8890,7 +8890,7 @@
         <v>66</v>
       </c>
       <c r="L43">
-        <v>0.000274074660448895</v>
+        <v>0.0002740746604488578</v>
       </c>
       <c r="M43">
         <v>-2.969800294771933e-05</v>
@@ -9087,7 +9087,7 @@
         <v>66</v>
       </c>
       <c r="L44">
-        <v>0.0006862765510126378</v>
+        <v>0.0006862765510123979</v>
       </c>
       <c r="M44">
         <v>-7.439393240234822e-05</v>
@@ -9284,7 +9284,7 @@
         <v>66</v>
       </c>
       <c r="L45">
-        <v>0.001724267028440505</v>
+        <v>0.001724267028438894</v>
       </c>
       <c r="M45">
         <v>-0.0001870348454696169</v>
@@ -9481,7 +9481,7 @@
         <v>66</v>
       </c>
       <c r="L46">
-        <v>0.004401543255141819</v>
+        <v>0.004401543255129847</v>
       </c>
       <c r="M46">
         <v>-0.0004747910403908624</v>
@@ -9678,7 +9678,7 @@
         <v>66</v>
       </c>
       <c r="L47">
-        <v>0.0001018536114449244</v>
+        <v>0.0001018536114449223</v>
       </c>
       <c r="M47">
         <v>-7.330056441876975e-06</v>
@@ -9875,7 +9875,7 @@
         <v>66</v>
       </c>
       <c r="L48">
-        <v>0.0002543731389583429</v>
+        <v>0.0002543731389583291</v>
       </c>
       <c r="M48">
         <v>-1.829017441027024e-05</v>
@@ -10072,7 +10072,7 @@
         <v>66</v>
       </c>
       <c r="L49">
-        <v>0.0006367792219674145</v>
+        <v>0.0006367792219673224</v>
       </c>
       <c r="M49">
         <v>-6.870667506184414e-05</v>
@@ -10269,7 +10269,7 @@
         <v>66</v>
       </c>
       <c r="L50">
-        <v>0.001599131228108429</v>
+        <v>0.001599131228107804</v>
       </c>
       <c r="M50">
         <v>-0.0001725401945636444</v>
@@ -10466,7 +10466,7 @@
         <v>66</v>
       </c>
       <c r="L51">
-        <v>0.004060366244775836</v>
+        <v>0.004060366244771337</v>
       </c>
       <c r="M51">
         <v>-0.0004362054147210984</v>
@@ -10663,7 +10663,7 @@
         <v>66</v>
       </c>
       <c r="L52">
-        <v>0.01099211705658816</v>
+        <v>0.01099211705654797</v>
       </c>
       <c r="M52">
         <v>-0.001123464792032145</v>
@@ -10860,7 +10860,7 @@
         <v>66</v>
       </c>
       <c r="L53">
-        <v>0.0002335356101184873</v>
+        <v>0.0002335356101184786</v>
       </c>
       <c r="M53">
         <v>-1.686217430112919e-05</v>
@@ -11057,7 +11057,7 @@
         <v>66</v>
       </c>
       <c r="L54">
-        <v>0.0005853036774416522</v>
+        <v>0.000585303677441591</v>
       </c>
       <c r="M54">
         <v>-6.330322931999526e-05</v>
@@ -11254,7 +11254,7 @@
         <v>66</v>
       </c>
       <c r="L55">
-        <v>0.001470367080346957</v>
+        <v>0.001470367080346524</v>
       </c>
       <c r="M55">
         <v>-0.0001587918923410219</v>
@@ -11451,7 +11451,7 @@
         <v>66</v>
       </c>
       <c r="L56">
-        <v>0.003721669469316258</v>
+        <v>0.003721669469313104</v>
       </c>
       <c r="M56">
         <v>-0.0004000985922759133</v>
@@ -11648,7 +11648,7 @@
         <v>66</v>
       </c>
       <c r="L57">
-        <v>0.009807292189706558</v>
+        <v>0.009807292189680549</v>
       </c>
       <c r="M57">
         <v>-0.001019599072082674</v>
@@ -11845,7 +11845,7 @@
         <v>66</v>
       </c>
       <c r="L58">
-        <v>0.03351446038627146</v>
+        <v>0.0335144603858706</v>
       </c>
       <c r="M58">
         <v>-0.002681086292345493</v>

--- a/idis/expdata/90011.xlsx
+++ b/idis/expdata/90011.xlsx
@@ -1416,7 +1416,7 @@
         <v>166</v>
       </c>
       <c r="M2">
-        <v>5.481075221445736e-06</v>
+        <v>-1.612936518286585e-07</v>
       </c>
       <c r="N2">
         <v>-5.96645838844124e-08</v>
@@ -1913,7 +1913,7 @@
         <v>166</v>
       </c>
       <c r="M3">
-        <v>1.402288890738122e-06</v>
+        <v>-6.526365045346147e-08</v>
       </c>
       <c r="N3">
         <v>-4.436144808107034e-08</v>
@@ -2410,7 +2410,7 @@
         <v>166</v>
       </c>
       <c r="M4">
-        <v>2.228840058028315e-06</v>
+        <v>-2.174976528091548e-07</v>
       </c>
       <c r="N4">
         <v>-2.413132787507419e-07</v>
@@ -2907,7 +2907,7 @@
         <v>166</v>
       </c>
       <c r="M5">
-        <v>8.117704909512755e-07</v>
+        <v>-2.612854984912088e-08</v>
       </c>
       <c r="N5">
         <v>-3.18119331955262e-08</v>
@@ -3404,7 +3404,7 @@
         <v>166</v>
       </c>
       <c r="M6">
-        <v>8.615755765468378e-07</v>
+        <v>-9.429297805665352e-08</v>
       </c>
       <c r="N6">
         <v>-1.951436840528466e-07</v>
@@ -3901,7 +3901,7 @@
         <v>166</v>
       </c>
       <c r="M7">
-        <v>4.76146502119546e-07</v>
+        <v>-9.752771283134464e-09</v>
       </c>
       <c r="N7">
         <v>-2.097446330453775e-08</v>
@@ -4398,7 +4398,7 @@
         <v>166</v>
       </c>
       <c r="M8">
-        <v>4.953476420948647e-07</v>
+        <v>-4.229006350023083e-08</v>
       </c>
       <c r="N8">
         <v>-1.569619689436197e-07</v>
@@ -4895,7 +4895,7 @@
         <v>166</v>
       </c>
       <c r="M9">
-        <v>8.563542616720461e-07</v>
+        <v>-1.145399413166158e-07</v>
       </c>
       <c r="N9">
         <v>-6.780306278544694e-07</v>
@@ -5392,7 +5392,7 @@
         <v>166</v>
       </c>
       <c r="M10">
-        <v>2.805739217395208e-07</v>
+        <v>-2.928397098383662e-09</v>
       </c>
       <c r="N10">
         <v>-1.103603880569816e-08</v>
@@ -5889,7 +5889,7 @@
         <v>166</v>
       </c>
       <c r="M11">
-        <v>2.900977014332588e-07</v>
+        <v>-1.892086940703823e-08</v>
       </c>
       <c r="N11">
         <v>-1.232225824040907e-07</v>
@@ -6386,7 +6386,7 @@
         <v>166</v>
       </c>
       <c r="M12">
-        <v>4.391645033603716e-07</v>
+        <v>-5.14291363487091e-08</v>
       </c>
       <c r="N12">
         <v>-5.507562707475823e-07</v>
@@ -6883,7 +6883,7 @@
         <v>166</v>
       </c>
       <c r="M13">
-        <v>9.091759933095882e-07</v>
+        <v>-1.174779401313203e-07</v>
       </c>
       <c r="N13">
         <v>-1.980165275856197e-06</v>
@@ -7380,7 +7380,7 @@
         <v>166</v>
       </c>
       <c r="M14">
-        <v>1.653533969196612e-07</v>
+        <v>-1.719096873584744e-10</v>
       </c>
       <c r="N14">
         <v>-1.129556333610227e-09</v>
@@ -7877,7 +7877,7 @@
         <v>166</v>
       </c>
       <c r="M15">
-        <v>1.712204976200508e-07</v>
+        <v>-8.103526462733868e-09</v>
       </c>
       <c r="N15">
         <v>-9.152810625761038e-08</v>
@@ -8374,7 +8374,7 @@
         <v>166</v>
       </c>
       <c r="M16">
-        <v>2.561123337535718e-07</v>
+        <v>-2.364242031856027e-08</v>
       </c>
       <c r="N16">
         <v>-4.440540490396094e-07</v>
@@ -8871,7 +8871,7 @@
         <v>166</v>
       </c>
       <c r="M17">
-        <v>4.125127997259818e-07</v>
+        <v>-5.115018915021521e-08</v>
       </c>
       <c r="N17">
         <v>-1.575665264660562e-06</v>
@@ -9368,7 +9368,7 @@
         <v>166</v>
       </c>
       <c r="M18">
-        <v>9.722786522947527e-08</v>
+        <v>8.080934980790189e-10</v>
       </c>
       <c r="N18">
         <v>9.238441107324931e-09</v>
@@ -9865,7 +9865,7 @@
         <v>166</v>
       </c>
       <c r="M19">
-        <v>1.01267560768509e-07</v>
+        <v>-3.164663001312479e-09</v>
       </c>
       <c r="N19">
         <v>-6.166409956967498e-08</v>
@@ -10362,7 +10362,7 @@
         <v>166</v>
       </c>
       <c r="M20">
-        <v>1.513455498254012e-07</v>
+        <v>-1.085887895845202e-08</v>
       </c>
       <c r="N20">
         <v>-3.517774188697432e-07</v>
@@ -10859,7 +10859,7 @@
         <v>166</v>
       </c>
       <c r="M21">
-        <v>2.348681499487865e-07</v>
+        <v>-2.54102766382937e-08</v>
       </c>
       <c r="N21">
         <v>-1.360743526375048e-06</v>
@@ -11356,7 +11356,7 @@
         <v>166</v>
       </c>
       <c r="M22">
-        <v>4.308988740436578e-07</v>
+        <v>-8.699738606192476e-08</v>
       </c>
       <c r="N22">
         <v>-7.257451420918389e-06</v>
@@ -11853,7 +11853,7 @@
         <v>166</v>
       </c>
       <c r="M23">
-        <v>5.684787568590855e-08</v>
+        <v>8.129816678018113e-10</v>
       </c>
       <c r="N23">
         <v>1.62019017854572e-08</v>
@@ -12350,7 +12350,7 @@
         <v>166</v>
       </c>
       <c r="M24">
-        <v>5.968742397192321e-08</v>
+        <v>-1.310662755692974e-09</v>
       </c>
       <c r="N24">
         <v>-4.392584976817969e-08</v>
@@ -12847,7 +12847,7 @@
         <v>166</v>
       </c>
       <c r="M25">
-        <v>8.97699804408327e-08</v>
+        <v>-5.362409330919307e-09</v>
       </c>
       <c r="N25">
         <v>-2.96110101746548e-07</v>
@@ -13344,7 +13344,7 @@
         <v>166</v>
       </c>
       <c r="M26">
-        <v>1.386654855823612e-07</v>
+        <v>-1.437350142765585e-08</v>
       </c>
       <c r="N26">
         <v>-1.297361686120139e-06</v>
@@ -13841,7 +13841,7 @@
         <v>166</v>
       </c>
       <c r="M27">
-        <v>2.236226742164798e-07</v>
+        <v>-4.457384238717066e-08</v>
       </c>
       <c r="N27">
         <v>-6.443861816090166e-06</v>
@@ -14338,7 +14338,7 @@
         <v>166</v>
       </c>
       <c r="M28">
-        <v>3.284922118490701e-08</v>
+        <v>-7.534053029343522e-12</v>
       </c>
       <c r="N28">
         <v>-2.598612486388727e-10</v>
@@ -14835,7 +14835,7 @@
         <v>166</v>
       </c>
       <c r="M29">
-        <v>3.486078874169743e-08</v>
+        <v>-1.467696929931849e-09</v>
       </c>
       <c r="N29">
         <v>-8.31706097774407e-08</v>
@@ -15332,7 +15332,7 @@
         <v>166</v>
       </c>
       <c r="M30">
-        <v>5.30378446238263e-08</v>
+        <v>-4.157792091137008e-09</v>
       </c>
       <c r="N30">
         <v>-3.813972319720115e-07</v>
@@ -15829,7 +15829,7 @@
         <v>166</v>
       </c>
       <c r="M31">
-        <v>8.233441214112135e-08</v>
+        <v>-1.058661410789609e-08</v>
       </c>
       <c r="N31">
         <v>-1.555820331239086e-06</v>
@@ -16326,7 +16326,7 @@
         <v>166</v>
       </c>
       <c r="M32">
-        <v>1.311209315831371e-07</v>
+        <v>-2.812178643285761e-08</v>
       </c>
       <c r="N32">
         <v>-6.637228749822179e-06</v>
@@ -16823,7 +16823,7 @@
         <v>166</v>
       </c>
       <c r="M33">
-        <v>2.239083195936625e-07</v>
+        <v>-1.031062848251185e-07</v>
       </c>
       <c r="N33">
         <v>-3.751785189491079e-05</v>
@@ -17320,7 +17320,7 @@
         <v>166</v>
       </c>
       <c r="M34">
-        <v>2.092220722277694e-08</v>
+        <v>-1.348478193618055e-09</v>
       </c>
       <c r="N34">
         <v>-7.597004695273561e-08</v>
@@ -17817,7 +17817,7 @@
         <v>166</v>
       </c>
       <c r="M35">
-        <v>2.008784867957585e-08</v>
+        <v>-2.892646562783805e-09</v>
       </c>
       <c r="N35">
         <v>-2.597237843931083e-07</v>
@@ -18314,7 +18314,7 @@
         <v>166</v>
       </c>
       <c r="M36">
-        <v>3.106984260253266e-08</v>
+        <v>-5.597789199710405e-09</v>
       </c>
       <c r="N36">
         <v>-7.959756580543051e-07</v>
@@ -18811,7 +18811,7 @@
         <v>166</v>
       </c>
       <c r="M37">
-        <v>4.878151278544156e-08</v>
+        <v>-1.136218603260912e-08</v>
       </c>
       <c r="N37">
         <v>-2.538441924281606e-06</v>
@@ -19308,7 +19308,7 @@
         <v>166</v>
       </c>
       <c r="M38">
-        <v>7.773868945054122e-08</v>
+        <v>-2.430117627516942e-08</v>
       </c>
       <c r="N38">
         <v>-8.635884330505615e-06</v>
@@ -19805,7 +19805,7 @@
         <v>166</v>
       </c>
       <c r="M39">
-        <v>1.278992244396043e-07</v>
+        <v>-6.780635941540015e-08</v>
       </c>
       <c r="N39">
         <v>-3.768708602217961e-05</v>
@@ -20302,7 +20302,7 @@
         <v>166</v>
       </c>
       <c r="M40">
-        <v>2.521400331580904e-07</v>
+        <v>-2.4705995360601e-07</v>
       </c>
       <c r="N40">
         <v>-0.0002101608668925942</v>
@@ -20799,7 +20799,7 @@
         <v>166</v>
       </c>
       <c r="M41">
-        <v>1.575996124838745e-08</v>
+        <v>-4.50726669763771e-09</v>
       </c>
       <c r="N41">
         <v>-5.751785084374313e-07</v>
@@ -21296,7 +21296,7 @@
         <v>166</v>
       </c>
       <c r="M42">
-        <v>1.830618222371397e-08</v>
+        <v>-7.775514073688981e-09</v>
       </c>
       <c r="N42">
         <v>-1.544083009541486e-06</v>
@@ -21793,7 +21793,7 @@
         <v>166</v>
       </c>
       <c r="M43">
-        <v>2.917869366551727e-08</v>
+        <v>-1.388434125776075e-08</v>
       </c>
       <c r="N43">
         <v>-4.272678075852528e-06</v>
@@ -22290,7 +22290,7 @@
         <v>166</v>
       </c>
       <c r="M44">
-        <v>4.688000769181651e-08</v>
+        <v>-2.568101196676271e-08</v>
       </c>
       <c r="N44">
         <v>-1.242531207836486e-05</v>
@@ -22787,7 +22787,7 @@
         <v>166</v>
       </c>
       <c r="M45">
-        <v>7.669008561059372e-08</v>
+        <v>-5.628649158635735e-08</v>
       </c>
       <c r="N45">
         <v>-4.269477375458535e-05</v>
@@ -23284,7 +23284,7 @@
         <v>166</v>
       </c>
       <c r="M46">
-        <v>1.311554479889972e-07</v>
+        <v>-1.572948710870544e-07</v>
       </c>
       <c r="N46">
         <v>-0.0001870934589958782</v>
@@ -23781,7 +23781,7 @@
         <v>166</v>
       </c>
       <c r="M47">
-        <v>1.53576778855198e-08</v>
+        <v>-9.451012674142641e-09</v>
       </c>
       <c r="N47">
         <v>-2.343072384488189e-06</v>
@@ -24278,7 +24278,7 @@
         <v>166</v>
       </c>
       <c r="M48">
-        <v>1.870792201523408e-08</v>
+        <v>-1.614883480304924e-08</v>
       </c>
       <c r="N48">
         <v>-6.113263349805643e-06</v>
@@ -24775,7 +24775,7 @@
         <v>166</v>
       </c>
       <c r="M49">
-        <v>3.056728516359588e-08</v>
+        <v>-2.808489500406668e-08</v>
       </c>
       <c r="N49">
         <v>-1.644657123334088e-05</v>
@@ -25272,7 +25272,7 @@
         <v>166</v>
       </c>
       <c r="M50">
-        <v>5.026928844319677e-08</v>
+        <v>-5.351728834805322e-08</v>
       </c>
       <c r="N50">
         <v>-4.872616867755804e-05</v>
@@ -25769,7 +25769,7 @@
         <v>166</v>
       </c>
       <c r="M51">
-        <v>8.467587961193351e-08</v>
+        <v>-1.207213956300451e-07</v>
       </c>
       <c r="N51">
         <v>-0.0001728629196604562</v>
@@ -26266,7 +26266,7 @@
         <v>166</v>
       </c>
       <c r="M52">
-        <v>1.614510315565418e-07</v>
+        <v>-3.354276340794409e-07</v>
       </c>
       <c r="N52">
         <v>-0.0007903761870459829</v>
@@ -26763,7 +26763,7 @@
         <v>166</v>
       </c>
       <c r="M53">
-        <v>2.372725790288703e-08</v>
+        <v>-2.323495888554081e-08</v>
       </c>
       <c r="N53">
         <v>-7.84396631360198e-06</v>
@@ -27260,7 +27260,7 @@
         <v>166</v>
       </c>
       <c r="M54">
-        <v>3.936474562280241e-08</v>
+        <v>-4.015866081617579e-08</v>
       </c>
       <c r="N54">
         <v>-2.029957069628214e-05</v>
@@ -27757,7 +27757,7 @@
         <v>166</v>
       </c>
       <c r="M55">
-        <v>6.524888383005866e-08</v>
+        <v>-7.19129170670057e-08</v>
       </c>
       <c r="N55">
         <v>-5.517346247765288e-05</v>
@@ -28254,7 +28254,7 @@
         <v>166</v>
       </c>
       <c r="M56">
-        <v>1.097638107751511e-07</v>
+        <v>-1.410167546244556e-07</v>
       </c>
       <c r="N56">
         <v>-0.0001672917126206902</v>
@@ -28751,7 +28751,7 @@
         <v>166</v>
       </c>
       <c r="M57">
-        <v>1.954658611084386e-07</v>
+        <v>-3.225842797166331e-07</v>
       </c>
       <c r="N57">
         <v>-0.0006179837605245068</v>
@@ -29248,7 +29248,7 @@
         <v>166</v>
       </c>
       <c r="M58">
-        <v>5.586257095877273e-07</v>
+        <v>-8.033132991426973e-07</v>
       </c>
       <c r="N58">
         <v>-0.002960286904841512</v>
